--- a/static/downloads/25 Bưu điện Tỉnh Thái Nguyên.xlsx
+++ b/static/downloads/25 Bưu điện Tỉnh Thái Nguyên.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B137"/>
+  <dimension ref="A1:B135"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +436,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>250000_huongnt</t>
+          <t>250000_ThuTTH</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -448,7 +448,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>250000_ThuTTH</t>
+          <t>250000_NhungPH</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -460,7 +460,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>250000_NhungPH</t>
+          <t>252500_ChanhNT</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -472,7 +472,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>252500_ChanhNT</t>
+          <t>253800_LanLT</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -484,7 +484,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>253800_LanLT</t>
+          <t>256950_PhuongLT</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -496,7 +496,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>256950_PhuongLT</t>
+          <t>251520_nganptt</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -508,7 +508,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>251520_nganptt</t>
+          <t>250000_samt</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -520,7 +520,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>250000_samt</t>
+          <t>251520_trungdq</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -532,7 +532,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>251520_trungdq</t>
+          <t>251720_HuongDTL</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -544,7 +544,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>251720_HuongDTL</t>
+          <t>251720_Huong_TB</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -556,7 +556,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>251720_Huong_TB</t>
+          <t>254400_HuyenNTT</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -568,7 +568,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>254400_HuyenNTT</t>
+          <t>257330_HuyenVT</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -580,7 +580,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>257330_HuyenVT</t>
+          <t>256800_huongmt</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -592,7 +592,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>251520_yennh</t>
+          <t>256815_thuonglt</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -604,7 +604,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>256800_huongmt</t>
+          <t>254400_tranghtq</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -616,7 +616,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>256815_thuonglt</t>
+          <t>250000_nguyennt</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -628,7 +628,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>254400_tranghtq</t>
+          <t>250900_hoact</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -640,7 +640,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>250000_nguyennt</t>
+          <t>252050_huongvtn</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -652,7 +652,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>250900_hoact</t>
+          <t>251210_linhvk</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -664,7 +664,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>252050_huongvtn</t>
+          <t>251130_hanhhth</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -676,7 +676,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>251210_linhvk</t>
+          <t>251160_TrangTT1</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -688,7 +688,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>251130_hanhhth</t>
+          <t>252050_huyenvt</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -700,7 +700,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>251160_TrangTT1</t>
+          <t>255620_hoalt1</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -712,7 +712,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>252050_huyenvt</t>
+          <t>255030_huyenct</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -724,7 +724,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>255620_hoalt1</t>
+          <t>255380_hanhdh</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -736,7 +736,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>255030_huyenct</t>
+          <t>253540_soanhv1</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -748,7 +748,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>255380_hanhdh</t>
+          <t>255080_thamtt</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -760,7 +760,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>253540_soanhv1</t>
+          <t>251810_phuong</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -772,7 +772,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>255080_thamtt</t>
+          <t>253350_huongtt</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -784,7 +784,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>251810_phuong</t>
+          <t>252670_nguyet</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -796,7 +796,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>253350_huongtt</t>
+          <t>253900_khuyen</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -808,7 +808,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>252670_nguyet</t>
+          <t>252500_trangtl1</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -820,7 +820,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>253900_khuyen</t>
+          <t>255940_quangtd</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -832,7 +832,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>252500_trangtl1</t>
+          <t>257140_dungntt</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -844,7 +844,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>255940_quangtd</t>
+          <t>254170_hoannt1</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -856,7 +856,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>257140_dungntt</t>
+          <t>255900_huongnt1</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -868,7 +868,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>254170_hoannt1</t>
+          <t>254070_gianght</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -880,7 +880,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>255900_huongnt1</t>
+          <t>251410_mayntq1</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -892,7 +892,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>254070_gianght</t>
+          <t>257050_chinhnt1</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -904,7 +904,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>251410_mayntq1</t>
+          <t>251610_haontb1</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -916,7 +916,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>257050_chinhnt1</t>
+          <t>257900_hiendtt</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -928,7 +928,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>251610_haontb1</t>
+          <t>251970_ngantn1</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -940,7 +940,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>257900_hiendtt</t>
+          <t>256520_hangdt1</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -952,7 +952,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>251970_ngantn1</t>
+          <t>256401_nganptt1</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -964,7 +964,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>256520_hangdt1</t>
+          <t>253370_anhltn1</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -976,7 +976,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>256401_nganptt1</t>
+          <t>254200_vinhdt1</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -988,7 +988,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>253370_anhltn1</t>
+          <t>251520_ducnt1</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1000,7 +1000,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>254200_vinhdt1</t>
+          <t>258180_sonnn1</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1012,7 +1012,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>251520_ducnt1</t>
+          <t>255351_havh</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1024,7 +1024,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>258180_sonnn1</t>
+          <t>257010_hangptt</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1036,7 +1036,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>255351_havh</t>
+          <t>251540_ngavt1</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1048,7 +1048,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>257010_hangptt</t>
+          <t>251430_dungnp1</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1060,7 +1060,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>251540_ngavt1</t>
+          <t>252940_hoannt1</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1072,7 +1072,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>251430_dungnp1</t>
+          <t>253820_ngamtt1</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1084,7 +1084,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>252940_hoannt1</t>
+          <t>253330_truclq</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1096,7 +1096,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>253820_ngamtt1</t>
+          <t>254630_cuongpk1</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1108,7 +1108,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>253330_truclq</t>
+          <t>254650_tuyenlv1</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1120,7 +1120,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>254630_cuongpk1</t>
+          <t>253580_duylv1</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1132,7 +1132,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>254650_tuyenlv1</t>
+          <t>253260_tunglv1</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -1144,7 +1144,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>253580_duylv1</t>
+          <t>255590_haidt1</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -1156,7 +1156,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>253260_tunglv1</t>
+          <t>253280_conghv1</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -1168,7 +1168,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>255590_haidt1</t>
+          <t>253010_chidv1</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -1180,7 +1180,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>253280_conghv1</t>
+          <t>252710_duyenlt1</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -1192,7 +1192,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>253010_chidv1</t>
+          <t>255850_dungptl1</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -1204,7 +1204,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>252710_duyenlt1</t>
+          <t>253860_oanhdt1</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -1216,7 +1216,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>255850_dungptl1</t>
+          <t>255690_kieult1</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -1228,7 +1228,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>253860_oanhdt1</t>
+          <t>254000_quynhhl1</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -1240,7 +1240,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>255690_kieult1</t>
+          <t>252760_thuydt1</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -1252,7 +1252,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>254000_quynhhl1</t>
+          <t>252570_oanhbtk1</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -1264,7 +1264,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>252760_thuydt1</t>
+          <t>253490_xuannt1</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -1276,7 +1276,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>252570_oanhbtk1</t>
+          <t>255770_luongtt1</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -1288,7 +1288,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>253490_xuannt1</t>
+          <t>256000_hoadt1</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -1300,7 +1300,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>255770_luongtt1</t>
+          <t>256460_yenbt1</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -1312,7 +1312,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>256000_hoadt1</t>
+          <t>252890_vannth1</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -1324,7 +1324,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>256460_yenbt1</t>
+          <t>254440_dinhlt1</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -1336,7 +1336,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>252890_vannth1</t>
+          <t>254470_ngolt1</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -1348,7 +1348,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>254440_dinhlt1</t>
+          <t>254820_lydt1</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -1360,7 +1360,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>254470_ngolt1</t>
+          <t>254990_huyenmt1</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -1372,7 +1372,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>254820_lydt1</t>
+          <t>255060_thoadt1</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -1384,7 +1384,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>254990_huyenmt1</t>
+          <t>255110_hiennt1</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -1396,7 +1396,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>255060_thoadt1</t>
+          <t>254791_natt1</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -1408,7 +1408,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>255110_hiennt1</t>
+          <t>253971_thulta1</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -1420,7 +1420,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>254791_natt1</t>
+          <t>253470_minhnq1</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -1432,7 +1432,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>253971_thulta1</t>
+          <t>253300_ninhnt1</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -1444,7 +1444,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>253470_minhnq1</t>
+          <t>257250_thomnt1</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -1456,7 +1456,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>253300_ninhnt1</t>
+          <t>256020_thamdt1</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -1468,7 +1468,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>257250_thomnt1</t>
+          <t>257750_lyht1</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -1480,7 +1480,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>256020_thamdt1</t>
+          <t>257950_tanvt1</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -1492,7 +1492,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>257750_lyht1</t>
+          <t>258021_chinhdt1</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -1504,7 +1504,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>257950_tanvt1</t>
+          <t>257920_hienntt1</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -1516,7 +1516,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>258021_chinhdt1</t>
+          <t>258070_tuyennt1</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -1528,7 +1528,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>257920_hienntt1</t>
+          <t>258240_haitv1</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -1540,7 +1540,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>258070_tuyennt1</t>
+          <t>258140_oanhnt1</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -1552,7 +1552,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>258240_haitv1</t>
+          <t>257680_hangct1</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -1564,7 +1564,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>258140_oanhnt1</t>
+          <t>257880_thuctt1</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -1576,7 +1576,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>257680_hangct1</t>
+          <t>257610_tuyenlt1</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -1588,7 +1588,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>257880_thuctt1</t>
+          <t>254110_thaont1</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -1600,7 +1600,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>257610_tuyenlt1</t>
+          <t>254230_haudt1</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -1612,7 +1612,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>254110_thaont1</t>
+          <t>252920_kieudt1</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -1624,7 +1624,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>254230_haudt1</t>
+          <t>252120_xenht1</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -1636,7 +1636,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>252920_kieudt1</t>
+          <t>256930_nhungnt1</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -1648,7 +1648,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>252120_xenht1</t>
+          <t>253930_tiennv1</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -1660,7 +1660,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>256930_nhungnt1</t>
+          <t>252500_tuyetnt1</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -1672,7 +1672,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>253930_tiennv1</t>
+          <t>256440_thuydt1</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -1684,7 +1684,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>252500_tuyetnt1</t>
+          <t>253400_oanhht1</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -1696,7 +1696,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>256440_thuydt1</t>
+          <t>253800_thaontp1</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -1708,7 +1708,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>253400_oanhht1</t>
+          <t>256800_thanhdt</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -1720,7 +1720,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>253800_thaontp1</t>
+          <t>00253894_hieu</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -1732,7 +1732,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>256800_thanhdt</t>
+          <t>251325_ngocnk</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -1744,7 +1744,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>00253894_hieu</t>
+          <t>254510_huelt</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -1756,7 +1756,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>251325_ngocnk</t>
+          <t>00059129_van</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -1768,7 +1768,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>254510_huelt</t>
+          <t>254790_huongpt</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -1780,7 +1780,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>00059129_van</t>
+          <t>256096_quyenvt</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -1792,7 +1792,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>254790_huongpt</t>
+          <t>252980_hoanttt</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -1804,7 +1804,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>256096_quyenvt</t>
+          <t>0216738_giang</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -1816,7 +1816,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>252980_hoanttt</t>
+          <t>00251774_viet</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -1828,7 +1828,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>0216738_giang</t>
+          <t>256116_mailt</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -1840,7 +1840,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>00251774_viet</t>
+          <t>00250210_van</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -1852,7 +1852,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>256116_mailt</t>
+          <t>00059643_huyen</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -1864,7 +1864,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>00250210_van</t>
+          <t>253800_yenhth</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -1876,7 +1876,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>00059643_huyen</t>
+          <t>255030_ngocnt</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -1888,7 +1888,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>253800_yenhth</t>
+          <t>258030_luattv</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -1900,7 +1900,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>255030_ngocnt</t>
+          <t>00261879_mai</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -1912,7 +1912,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>258030_luattv</t>
+          <t>254400_thaolt</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -1924,7 +1924,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>00261879_mai</t>
+          <t>257110_nguyenlt</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -1936,7 +1936,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>254400_thaolt</t>
+          <t>252870_liennth</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -1948,7 +1948,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>257110_nguyenlt</t>
+          <t>252160_haoct</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -1960,7 +1960,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>252870_liennth</t>
+          <t>00253100_tung</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -1972,7 +1972,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>252160_haoct</t>
+          <t>251580_hapn</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -1984,7 +1984,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>00253100_tung</t>
+          <t>00257738_thuy</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -1996,7 +1996,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>251580_hapn</t>
+          <t>256650_linhnn</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -2008,7 +2008,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>00257738_thuy</t>
+          <t>251620_hoadt</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -2020,7 +2020,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>256650_linhnn</t>
+          <t>251520_quyetnv</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -2032,34 +2032,10 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>251620_hoadt</t>
+          <t>00059356_ngoc</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
-        <is>
-          <t>25_Bưu điện Tỉnh Thái Nguyên</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="inlineStr">
-        <is>
-          <t>251520_quyetnv</t>
-        </is>
-      </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>25_Bưu điện Tỉnh Thái Nguyên</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="inlineStr">
-        <is>
-          <t>00059356_ngoc</t>
-        </is>
-      </c>
-      <c r="B137" t="inlineStr">
         <is>
           <t>25_Bưu điện Tỉnh Thái Nguyên</t>
         </is>
